--- a/data/DQC.xlsx
+++ b/data/DQC.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="352">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="352">
   <si>
     <t>Liên Hệ</t>
   </si>
@@ -73,7 +73,7 @@
     <t>Ngày xuất</t>
   </si>
   <si>
-    <t>26/11/2025</t>
+    <t>17/12/2025</t>
   </si>
   <si>
     <t>DQC</t>
@@ -21985,7 +21985,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDF32B87-0276-EF4E-963C-ED48B34C3BF9}">
-  <dimension ref="A1:AQ60"/>
+  <dimension ref="A1:AR60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
@@ -22036,6 +22036,7 @@
     <col min="41" max="41" width="17.453125" customWidth="true" bestFit="true"/>
     <col min="42" max="42" width="16.7890625" customWidth="true" bestFit="true"/>
     <col min="43" max="43" width="16.28515625" customWidth="true" bestFit="true"/>
+    <col min="44" max="44" width="17.453125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="17.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -22208,6 +22209,9 @@
       <c r="AQ11" s="6" t="s">
         <v>49</v>
       </c>
+      <c r="AR11" s="6" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="24" t="s">
@@ -22336,6 +22340,9 @@
       <c r="AQ12" s="21" t="n">
         <v>4.972445321E9</v>
       </c>
+      <c r="AR12" s="21" t="n">
+        <v>4.273895259E9</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="24" t="s">
@@ -22464,6 +22471,9 @@
       <c r="AQ13" s="21" t="n">
         <v>5.61150318E9</v>
       </c>
+      <c r="AR13" s="21" t="n">
+        <v>5.864623413E9</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="24" t="s">
@@ -22592,6 +22602,9 @@
       <c r="AQ14" s="21" t="n">
         <v>0.0</v>
       </c>
+      <c r="AR14" s="21" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="24" t="s">
@@ -22720,6 +22733,9 @@
       <c r="AQ15" s="21" t="n">
         <v>-5.527748561E9</v>
       </c>
+      <c r="AR15" s="21" t="n">
+        <v>1.1200426575E10</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="24" t="s">
@@ -22848,6 +22864,9 @@
       <c r="AQ16" s="21" t="n">
         <v>0.0</v>
       </c>
+      <c r="AR16" s="21" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="24" t="s">
@@ -22976,6 +22995,9 @@
       <c r="AQ17" s="21" t="n">
         <v>0.0</v>
       </c>
+      <c r="AR17" s="21" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="24" t="s">
@@ -23104,6 +23126,9 @@
       <c r="AQ18" s="21" t="n">
         <v>-1.032319724E9</v>
       </c>
+      <c r="AR18" s="21" t="n">
+        <v>4.3072904E7</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="24" t="s">
@@ -23232,6 +23257,9 @@
       <c r="AQ19" s="21" t="n">
         <v>2.238003355E9</v>
       </c>
+      <c r="AR19" s="21" t="n">
+        <v>2.081510039E9</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="24" t="s">
@@ -23360,6 +23388,9 @@
       <c r="AQ20" s="21" t="n">
         <v>0.0</v>
       </c>
+      <c r="AR20" s="21" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="24" t="s">
@@ -23488,6 +23519,9 @@
       <c r="AQ21" s="21" t="n">
         <v>0.0</v>
       </c>
+      <c r="AR21" s="21" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="24" t="s">
@@ -23616,6 +23650,9 @@
       <c r="AQ22" s="21" t="n">
         <v>3.1847575583E10</v>
       </c>
+      <c r="AR22" s="21" t="n">
+        <v>4.0017005372E10</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="22" t="s">
@@ -23744,6 +23781,9 @@
       <c r="AQ23" s="21" t="n">
         <v>6.261883571E9</v>
       </c>
+      <c r="AR23" s="21" t="n">
+        <v>2.346352819E10</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="22" t="s">
@@ -23872,6 +23912,9 @@
       <c r="AQ24" s="21" t="n">
         <v>-2.0287476686E10</v>
       </c>
+      <c r="AR24" s="21" t="n">
+        <v>-1.88378731612E11</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="22" t="s">
@@ -24000,6 +24043,9 @@
       <c r="AQ25" s="21" t="n">
         <v>-3.9321395332E10</v>
       </c>
+      <c r="AR25" s="21" t="n">
+        <v>1.4463509556E10</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="22" t="s">
@@ -24128,6 +24174,9 @@
       <c r="AQ26" s="21" t="n">
         <v>8.360691024E10</v>
       </c>
+      <c r="AR26" s="21" t="n">
+        <v>1.94892794687E11</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="22" t="s">
@@ -24256,6 +24305,9 @@
       <c r="AQ27" s="21" t="n">
         <v>4.594651353E9</v>
       </c>
+      <c r="AR27" s="21" t="n">
+        <v>3.59641211E8</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="22" t="s">
@@ -24384,6 +24436,9 @@
       <c r="AQ28" s="21" t="n">
         <v>0.0</v>
       </c>
+      <c r="AR28" s="21" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="22" t="s">
@@ -24512,6 +24567,9 @@
       <c r="AQ29" s="21" t="n">
         <v>-2.325654194E9</v>
       </c>
+      <c r="AR29" s="21" t="n">
+        <v>-2.081510039E9</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="22" t="s">
@@ -24640,6 +24698,9 @@
       <c r="AQ30" s="21" t="n">
         <v>-4.22893369E8</v>
       </c>
+      <c r="AR30" s="21" t="n">
+        <v>-2.234826621E9</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="22" t="s">
@@ -24768,6 +24829,9 @@
       <c r="AQ31" s="21" t="n">
         <v>0.0</v>
       </c>
+      <c r="AR31" s="21" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="22" t="s">
@@ -24896,6 +24960,9 @@
       <c r="AQ32" s="21" t="n">
         <v>-2.5845E8</v>
       </c>
+      <c r="AR32" s="21" t="n">
+        <v>-4.674E8</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="24" t="s">
@@ -25024,6 +25091,9 @@
       <c r="AQ33" s="21" t="n">
         <v>2.0191164786E10</v>
       </c>
+      <c r="AR33" s="21" t="n">
+        <v>2.1804286995E10</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="22" t="s">
@@ -25152,6 +25222,9 @@
       <c r="AQ34" s="21" t="n">
         <v>-4.448606646E9</v>
       </c>
+      <c r="AR34" s="21" t="n">
+        <v>6.130767847E9</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="22" t="s">
@@ -25280,6 +25353,9 @@
       <c r="AQ35" s="21" t="n">
         <v>5.09090909E8</v>
       </c>
+      <c r="AR35" s="21" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="22" t="s">
@@ -25408,6 +25484,9 @@
       <c r="AQ36" s="21" t="n">
         <v>3.0074141927E10</v>
       </c>
+      <c r="AR36" s="21" t="n">
+        <v>1.541855324E10</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="22" t="s">
@@ -25536,6 +25615,9 @@
       <c r="AQ37" s="21" t="n">
         <v>-7.937808776E9</v>
       </c>
+      <c r="AR37" s="21" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="22" t="s">
@@ -25664,6 +25746,9 @@
       <c r="AQ38" s="21" t="n">
         <v>0.0</v>
       </c>
+      <c r="AR38" s="21" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="22" t="s">
@@ -25792,6 +25877,9 @@
       <c r="AQ39" s="21" t="n">
         <v>0.0</v>
       </c>
+      <c r="AR39" s="21" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="22" t="s">
@@ -25920,6 +26008,9 @@
       <c r="AQ40" s="21" t="n">
         <v>1.994347372E9</v>
       </c>
+      <c r="AR40" s="21" t="n">
+        <v>2.54965908E8</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="24" t="s">
@@ -26048,6 +26139,9 @@
       <c r="AQ41" s="21" t="n">
         <v>-4.4668505098E10</v>
       </c>
+      <c r="AR41" s="21" t="n">
+        <v>-4.7213888698E10</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="22" t="s">
@@ -26176,6 +26270,9 @@
       <c r="AQ42" s="21" t="n">
         <v>0.0</v>
       </c>
+      <c r="AR42" s="21" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="22" t="s">
@@ -26304,6 +26401,9 @@
       <c r="AQ43" s="21" t="n">
         <v>0.0</v>
       </c>
+      <c r="AR43" s="21" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="22" t="s">
@@ -26432,6 +26532,9 @@
       <c r="AQ44" s="21" t="n">
         <v>4.7687185316E10</v>
       </c>
+      <c r="AR44" s="21" t="n">
+        <v>6.4168497215E10</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="22" t="s">
@@ -26560,6 +26663,9 @@
       <c r="AQ45" s="21" t="n">
         <v>-9.2355690414E10</v>
       </c>
+      <c r="AR45" s="21" t="n">
+        <v>-1.09431543825E11</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="22" t="s">
@@ -26688,6 +26794,9 @@
       <c r="AQ46" s="21" t="n">
         <v>0.0</v>
       </c>
+      <c r="AR46" s="21" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="22" t="s">
@@ -26816,6 +26925,9 @@
       <c r="AQ47" s="21" t="n">
         <v>0.0</v>
       </c>
+      <c r="AR47" s="21" t="n">
+        <v>-1.950842088E9</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="22" t="s">
@@ -26944,6 +27056,9 @@
       <c r="AQ48" s="21" t="n">
         <v>0.0</v>
       </c>
+      <c r="AR48" s="21" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="24" t="s">
@@ -27072,6 +27187,9 @@
       <c r="AQ49" s="21" t="n">
         <v>7.370235271E9</v>
       </c>
+      <c r="AR49" s="21" t="n">
+        <v>1.4607403669E10</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="24" t="s">
@@ -27200,6 +27318,9 @@
       <c r="AQ50" s="21" t="n">
         <v>4.0051104942E10</v>
       </c>
+      <c r="AR50" s="21" t="n">
+        <v>2.972972081E10</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="24" t="s">
@@ -27328,6 +27449,9 @@
       <c r="AQ51" s="21" t="n">
         <v>0.0</v>
       </c>
+      <c r="AR51" s="21" t="n">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="24" t="s">
@@ -27455,6 +27579,9 @@
       </c>
       <c r="AQ52" s="21" t="n">
         <v>4.7421340213E10</v>
+      </c>
+      <c r="AR52" s="21" t="n">
+        <v>4.4337124479E10</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
@@ -27495,7 +27622,7 @@
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B10:I10"/>
-    <mergeCell ref="K10:AQ10"/>
+    <mergeCell ref="K10:AR10"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A58" r:id="rId1" display="https://www.vietcap.com.vn/" xr:uid="{2404128C-51EF-8E44-9BE0-4A8D207DD5D8}"/>

--- a/data/DQC.xlsx
+++ b/data/DQC.xlsx
@@ -73,7 +73,7 @@
     <t>Ngày xuất</t>
   </si>
   <si>
-    <t>17/12/2025</t>
+    <t>21/12/2025</t>
   </si>
   <si>
     <t>DQC</t>

--- a/data/DQC.xlsx
+++ b/data/DQC.xlsx
@@ -73,7 +73,7 @@
     <t>Ngày xuất</t>
   </si>
   <si>
-    <t>21/12/2025</t>
+    <t>23/12/2025</t>
   </si>
   <si>
     <t>DQC</t>

--- a/data/DQC.xlsx
+++ b/data/DQC.xlsx
@@ -73,7 +73,7 @@
     <t>Ngày xuất</t>
   </si>
   <si>
-    <t>23/12/2025</t>
+    <t>25/12/2025</t>
   </si>
   <si>
     <t>DQC</t>
